--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_dampingfactor.xlsx
@@ -14,180 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01568680018304218</t>
-  </si>
-  <si>
-    <t>0.024427198904503677</t>
-  </si>
-  <si>
-    <t>0.038033264378724195</t>
-  </si>
-  <si>
-    <t>0.06018548385471702</t>
-  </si>
-  <si>
-    <t>0.09370861341548586</t>
-  </si>
-  <si>
-    <t>0.15069998688483047</t>
-  </si>
-  <si>
-    <t>0.23584636288221247</t>
-  </si>
-  <si>
-    <t>0.38592803274377674</t>
-  </si>
-  <si>
-    <t>0.5658111337290812</t>
-  </si>
-  <si>
-    <t>0.8667879317787701</t>
-  </si>
-  <si>
-    <t>1.2265305910170552</t>
-  </si>
-  <si>
-    <t>1.758534828605449</t>
-  </si>
-  <si>
-    <t>2.5212637723229543</t>
-  </si>
-  <si>
-    <t>3.614821968911624</t>
-  </si>
-  <si>
-    <t>5.18232508779742</t>
-  </si>
-  <si>
-    <t>7.429012806216681</t>
-  </si>
-  <si>
-    <t>10.649562160527832</t>
-  </si>
-  <si>
-    <t>15.2667382422744</t>
-  </si>
-  <si>
-    <t>21.88541698427214</t>
-  </si>
-  <si>
-    <t>31.37095574094585</t>
-  </si>
-  <si>
-    <t>44.96749492053424</t>
-  </si>
-  <si>
-    <t>64.45370059934082</t>
-  </si>
-  <si>
-    <t>92.38658224212102</t>
-  </si>
-  <si>
-    <t>132.42800767704145</t>
-  </si>
-  <si>
-    <t>189.81693159999685</t>
-  </si>
-  <si>
-    <t>272.0485965482647</t>
-  </si>
-  <si>
-    <t>389.92030524361485</t>
-  </si>
-  <si>
-    <t>506.6628665720611</t>
-  </si>
-  <si>
-    <t>23.08032112096148</t>
-  </si>
-  <si>
-    <t>16.63902879452181</t>
-  </si>
-  <si>
-    <t>12.311288810273878</t>
-  </si>
-  <si>
-    <t>9.413624299114986</t>
-  </si>
-  <si>
-    <t>6.973173488728675</t>
-  </si>
-  <si>
-    <t>5.605734795118708</t>
-  </si>
-  <si>
-    <t>4.46700197674022</t>
-  </si>
-  <si>
-    <t>3.649344107238523</t>
-  </si>
-  <si>
-    <t>3.0116681197729145</t>
-  </si>
-  <si>
-    <t>2.6136947787940756</t>
-  </si>
-  <si>
-    <t>2.3137120171235317</t>
-  </si>
-  <si>
-    <t>2.019744460472974</t>
-  </si>
-  <si>
-    <t>1.7680354706906776</t>
-  </si>
-  <si>
-    <t>1.5466201552592345</t>
-  </si>
-  <si>
-    <t>1.3751174435684188</t>
-  </si>
-  <si>
-    <t>1.242939264273377</t>
-  </si>
-  <si>
-    <t>1.1269072966265354</t>
-  </si>
-  <si>
-    <t>1.0142779513239641</t>
-  </si>
-  <si>
-    <t>0.9157651902860525</t>
-  </si>
-  <si>
-    <t>0.842483480086274</t>
-  </si>
-  <si>
-    <t>0.7758744318935122</t>
-  </si>
-  <si>
-    <t>0.7227733209502722</t>
-  </si>
-  <si>
-    <t>0.6691077824907969</t>
-  </si>
-  <si>
-    <t>0.616206291145807</t>
-  </si>
-  <si>
-    <t>0.5722403113766551</t>
-  </si>
-  <si>
-    <t>0.5437409249091338</t>
-  </si>
-  <si>
-    <t>0.5118356560328683</t>
-  </si>
-  <si>
-    <t>0.47730281331340707</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -560,227 +392,227 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="A2">
+        <v>0.01568680018304218</v>
+      </c>
+      <c r="B2">
+        <v>23.08032112096148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="A3">
+        <v>0.02442719890450368</v>
+      </c>
+      <c r="B3">
+        <v>16.63902879452181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="A4">
+        <v>0.0380332643787242</v>
+      </c>
+      <c r="B4">
+        <v>12.31128881027388</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="A5">
+        <v>0.06018548385471702</v>
+      </c>
+      <c r="B5">
+        <v>9.413624299114986</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="A6">
+        <v>0.09370861341548586</v>
+      </c>
+      <c r="B6">
+        <v>6.973173488728675</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+      <c r="A7">
+        <v>0.1506999868848305</v>
+      </c>
+      <c r="B7">
+        <v>5.605734795118708</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="A8">
+        <v>0.2358463628822125</v>
+      </c>
+      <c r="B8">
+        <v>4.46700197674022</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
+      <c r="A9">
+        <v>0.3859280327437767</v>
+      </c>
+      <c r="B9">
+        <v>3.649344107238523</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="A10">
+        <v>0.5658111337290812</v>
+      </c>
+      <c r="B10">
+        <v>3.011668119772914</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
+      <c r="A11">
+        <v>0.8667879317787701</v>
+      </c>
+      <c r="B11">
+        <v>2.613694778794076</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
+      <c r="A12">
+        <v>1.226530591017055</v>
+      </c>
+      <c r="B12">
+        <v>2.313712017123532</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
+      <c r="A13">
+        <v>1.758534828605449</v>
+      </c>
+      <c r="B13">
+        <v>2.019744460472974</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
+      <c r="A14">
+        <v>2.521263772322954</v>
+      </c>
+      <c r="B14">
+        <v>1.768035470690678</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
+      <c r="A15">
+        <v>3.614821968911624</v>
+      </c>
+      <c r="B15">
+        <v>1.546620155259234</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
+      <c r="A16">
+        <v>5.18232508779742</v>
+      </c>
+      <c r="B16">
+        <v>1.375117443568419</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
+      <c r="A17">
+        <v>7.429012806216681</v>
+      </c>
+      <c r="B17">
+        <v>1.242939264273377</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
+      <c r="A18">
+        <v>10.64956216052783</v>
+      </c>
+      <c r="B18">
+        <v>1.126907296626535</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
+      <c r="A19">
+        <v>15.2667382422744</v>
+      </c>
+      <c r="B19">
+        <v>1.014277951323964</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
+      <c r="A20">
+        <v>21.88541698427214</v>
+      </c>
+      <c r="B20">
+        <v>0.9157651902860525</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
+      <c r="A21">
+        <v>31.37095574094585</v>
+      </c>
+      <c r="B21">
+        <v>0.8424834800862741</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
+      <c r="A22">
+        <v>44.96749492053424</v>
+      </c>
+      <c r="B22">
+        <v>0.7758744318935122</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
+      <c r="A23">
+        <v>64.45370059934082</v>
+      </c>
+      <c r="B23">
+        <v>0.7227733209502722</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+      <c r="A24">
+        <v>92.38658224212102</v>
+      </c>
+      <c r="B24">
+        <v>0.6691077824907969</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
+      <c r="A25">
+        <v>132.4280076770414</v>
+      </c>
+      <c r="B25">
+        <v>0.6162062911458071</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
+      <c r="A26">
+        <v>189.8169315999968</v>
+      </c>
+      <c r="B26">
+        <v>0.5722403113766551</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
+      <c r="A27">
+        <v>272.0485965482647</v>
+      </c>
+      <c r="B27">
+        <v>0.5437409249091338</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
+      <c r="A28">
+        <v>389.9203052436148</v>
+      </c>
+      <c r="B28">
+        <v>0.5118356560328683</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
+      <c r="A29">
+        <v>506.6628665720611</v>
+      </c>
+      <c r="B29">
+        <v>0.4773028133134071</v>
       </c>
     </row>
   </sheetData>
